--- a/Team-Data/2013-14/3-30-2013-14.xlsx
+++ b/Team-Data/2013-14/3-30-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
         <v>20</v>
@@ -768,7 +835,7 @@
         <v>12</v>
       </c>
       <c r="AL2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM2" t="n">
         <v>2</v>
@@ -786,7 +853,7 @@
         <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS2" t="n">
         <v>20</v>
@@ -798,10 +865,10 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
         <v>25</v>
@@ -810,13 +877,13 @@
         <v>12</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
         <v>21</v>
       </c>
       <c r="BB2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
         <v>18</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -848,22 +915,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" t="n">
-        <v>0.315</v>
+        <v>0.319</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J3" t="n">
         <v>83.90000000000001</v>
@@ -875,13 +942,13 @@
         <v>6.7</v>
       </c>
       <c r="M3" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="N3" t="n">
         <v>0.331</v>
       </c>
       <c r="O3" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P3" t="n">
         <v>21</v>
@@ -893,10 +960,10 @@
         <v>12</v>
       </c>
       <c r="S3" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T3" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U3" t="n">
         <v>20.8</v>
@@ -917,16 +984,16 @@
         <v>21.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC3" t="n">
         <v>-4.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
         <v>26</v>
@@ -959,7 +1026,7 @@
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
@@ -974,7 +1041,7 @@
         <v>21</v>
       </c>
       <c r="AT3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU3" t="n">
         <v>25</v>
@@ -989,7 +1056,7 @@
         <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -998,10 +1065,10 @@
         <v>28</v>
       </c>
       <c r="BB3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -1030,55 +1097,55 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" t="n">
         <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>0.542</v>
+        <v>0.535</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J4" t="n">
-        <v>78.2</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L4" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="M4" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="N4" t="n">
         <v>0.372</v>
       </c>
       <c r="O4" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P4" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R4" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S4" t="n">
         <v>29.5</v>
       </c>
       <c r="T4" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="U4" t="n">
         <v>20.8</v>
@@ -1087,7 +1154,7 @@
         <v>14.3</v>
       </c>
       <c r="W4" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
         <v>3.9</v>
@@ -1102,13 +1169,13 @@
         <v>20.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
@@ -1150,7 +1217,7 @@
         <v>14</v>
       </c>
       <c r="AR4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS4" t="n">
         <v>28</v>
@@ -1159,7 +1226,7 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV4" t="n">
         <v>10</v>
@@ -1177,10 +1244,10 @@
         <v>22</v>
       </c>
       <c r="BA4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC4" t="n">
         <v>16</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1320,7 +1387,7 @@
         <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
         <v>14</v>
@@ -1341,7 +1408,7 @@
         <v>21</v>
       </c>
       <c r="AU5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1350,7 +1417,7 @@
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY5" t="n">
         <v>20</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -1394,55 +1461,55 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n">
         <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="J6" t="n">
-        <v>80.2</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.43</v>
+        <v>0.428</v>
       </c>
       <c r="L6" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>17.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="O6" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q6" t="n">
         <v>0.775</v>
       </c>
       <c r="R6" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="S6" t="n">
         <v>33</v>
       </c>
       <c r="T6" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="U6" t="n">
         <v>22.3</v>
@@ -1457,22 +1524,22 @@
         <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>93</v>
+        <v>92.8</v>
       </c>
       <c r="AC6" t="n">
         <v>1</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1508,16 +1575,16 @@
         <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
         <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT6" t="n">
         <v>9</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="n">
         <v>45</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4</v>
+        <v>0.392</v>
       </c>
       <c r="H7" t="n">
         <v>48.6</v>
@@ -1594,16 +1661,16 @@
         <v>36.6</v>
       </c>
       <c r="J7" t="n">
-        <v>84.5</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K7" t="n">
         <v>0.433</v>
       </c>
       <c r="L7" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M7" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
         <v>0.358</v>
@@ -1615,13 +1682,13 @@
         <v>22.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="R7" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S7" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
         <v>44.1</v>
@@ -1639,7 +1706,7 @@
         <v>3.7</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z7" t="n">
         <v>20</v>
@@ -1648,10 +1715,10 @@
         <v>19.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.1</v>
+        <v>-4.3</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -1705,7 +1772,7 @@
         <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV7" t="n">
         <v>11</v>
@@ -1729,7 +1796,7 @@
         <v>22</v>
       </c>
       <c r="BC7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -1836,25 +1903,25 @@
         <v>2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
         <v>16</v>
@@ -1884,13 +1951,13 @@
         <v>24</v>
       </c>
       <c r="AT8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU8" t="n">
         <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
@@ -2030,10 +2097,10 @@
         <v>18</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
         <v>5</v>
@@ -2042,7 +2109,7 @@
         <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
@@ -2063,7 +2130,7 @@
         <v>5</v>
       </c>
       <c r="AS9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT9" t="n">
         <v>3</v>
@@ -2081,7 +2148,7 @@
         <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,10 +2279,10 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ10" t="n">
         <v>4</v>
@@ -2248,7 +2315,7 @@
         <v>23</v>
       </c>
       <c r="AT10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU10" t="n">
         <v>21</v>
@@ -2263,13 +2330,13 @@
         <v>11</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
         <v>14</v>
       </c>
       <c r="BA10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB10" t="n">
         <v>17</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" t="n">
         <v>45</v>
       </c>
       <c r="F11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" t="n">
-        <v>0.616</v>
+        <v>0.625</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J11" t="n">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="K11" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L11" t="n">
         <v>9.1</v>
@@ -2334,16 +2401,16 @@
         <v>24.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="O11" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P11" t="n">
         <v>21.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R11" t="n">
         <v>11</v>
@@ -2355,13 +2422,13 @@
         <v>45.3</v>
       </c>
       <c r="U11" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V11" t="n">
         <v>15.3</v>
       </c>
       <c r="W11" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X11" t="n">
         <v>5.2</v>
@@ -2370,25 +2437,25 @@
         <v>4.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA11" t="n">
         <v>19.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.2</v>
+        <v>103.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
         <v>8</v>
@@ -2397,13 +2464,13 @@
         <v>18</v>
       </c>
       <c r="AI11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>7</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>8</v>
-      </c>
       <c r="AK11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL11" t="n">
         <v>7</v>
@@ -2412,7 +2479,7 @@
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO11" t="n">
         <v>21</v>
@@ -2424,7 +2491,7 @@
         <v>18</v>
       </c>
       <c r="AR11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2433,16 +2500,16 @@
         <v>2</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>22</v>
       </c>
       <c r="AW11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>5.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2597,7 +2664,7 @@
         <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
@@ -2612,7 +2679,7 @@
         <v>5</v>
       </c>
       <c r="AT12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU12" t="n">
         <v>20</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -2668,46 +2735,46 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" t="n">
         <v>52</v>
       </c>
       <c r="F13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" t="n">
-        <v>0.703</v>
+        <v>0.712</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J13" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L13" t="n">
         <v>6.6</v>
       </c>
       <c r="M13" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N13" t="n">
         <v>0.35</v>
       </c>
       <c r="O13" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P13" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.784</v>
+        <v>0.785</v>
       </c>
       <c r="R13" t="n">
         <v>10.3</v>
@@ -2716,7 +2783,7 @@
         <v>34.9</v>
       </c>
       <c r="T13" t="n">
-        <v>45.1</v>
+        <v>45.2</v>
       </c>
       <c r="U13" t="n">
         <v>20</v>
@@ -2728,10 +2795,10 @@
         <v>6.9</v>
       </c>
       <c r="X13" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z13" t="n">
         <v>20.3</v>
@@ -2740,13 +2807,13 @@
         <v>22</v>
       </c>
       <c r="AB13" t="n">
-        <v>97</v>
+        <v>97.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>3</v>
@@ -2758,7 +2825,7 @@
         <v>3</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI13" t="n">
         <v>26</v>
@@ -2767,7 +2834,7 @@
         <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
         <v>24</v>
@@ -2782,10 +2849,10 @@
         <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR13" t="n">
         <v>22</v>
@@ -2794,10 +2861,10 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV13" t="n">
         <v>20</v>
@@ -2809,7 +2876,7 @@
         <v>4</v>
       </c>
       <c r="AY13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ13" t="n">
         <v>13</v>
@@ -2821,7 +2888,7 @@
         <v>23</v>
       </c>
       <c r="BC13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -2928,25 +2995,25 @@
         <v>7.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>3</v>
       </c>
       <c r="AJ14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2973,7 +3040,7 @@
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT14" t="n">
         <v>17</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -3032,52 +3099,52 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" t="n">
         <v>48</v>
       </c>
       <c r="G15" t="n">
-        <v>0.342</v>
+        <v>0.333</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J15" t="n">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L15" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="M15" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="O15" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P15" t="n">
         <v>22.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.753</v>
+        <v>0.75</v>
       </c>
       <c r="R15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S15" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T15" t="n">
         <v>41.1</v>
@@ -3095,7 +3162,7 @@
         <v>5.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z15" t="n">
         <v>20.2</v>
@@ -3104,31 +3171,31 @@
         <v>19.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.6</v>
+        <v>102.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.1</v>
+        <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF15" t="n">
         <v>24</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH15" t="n">
         <v>30</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK15" t="n">
         <v>14</v>
@@ -3140,7 +3207,7 @@
         <v>6</v>
       </c>
       <c r="AN15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO15" t="n">
         <v>19</v>
@@ -3164,7 +3231,7 @@
         <v>4</v>
       </c>
       <c r="AV15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW15" t="n">
         <v>20</v>
@@ -3173,13 +3240,13 @@
         <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
         <v>11</v>
       </c>
       <c r="BA15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB15" t="n">
         <v>12</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" t="n">
         <v>43</v>
       </c>
       <c r="F16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" t="n">
-        <v>0.589</v>
+        <v>0.597</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3232,7 +3299,7 @@
         <v>37.8</v>
       </c>
       <c r="J16" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K16" t="n">
         <v>0.463</v>
@@ -3241,43 +3308,43 @@
         <v>4.9</v>
       </c>
       <c r="M16" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O16" t="n">
         <v>15.1</v>
       </c>
       <c r="P16" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R16" t="n">
         <v>11.4</v>
       </c>
       <c r="S16" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T16" t="n">
         <v>42.3</v>
       </c>
       <c r="U16" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V16" t="n">
         <v>13.6</v>
       </c>
       <c r="W16" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z16" t="n">
         <v>19.3</v>
@@ -3289,10 +3356,10 @@
         <v>95.59999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3301,7 +3368,7 @@
         <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
         <v>18</v>
@@ -3313,7 +3380,7 @@
         <v>24</v>
       </c>
       <c r="AK16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>30</v>
@@ -3331,13 +3398,13 @@
         <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR16" t="n">
         <v>14</v>
       </c>
       <c r="AS16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT16" t="n">
         <v>20</v>
@@ -3349,10 +3416,10 @@
         <v>3</v>
       </c>
       <c r="AW16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY16" t="n">
         <v>19</v>
@@ -3364,7 +3431,7 @@
         <v>29</v>
       </c>
       <c r="BB16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC16" t="n">
         <v>13</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -3474,13 +3541,13 @@
         <v>5.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
       </c>
       <c r="AF17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG17" t="n">
         <v>5</v>
@@ -3489,7 +3556,7 @@
         <v>11</v>
       </c>
       <c r="AI17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3501,16 +3568,16 @@
         <v>16</v>
       </c>
       <c r="AM17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO17" t="n">
         <v>15</v>
       </c>
       <c r="AP17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ17" t="n">
         <v>15</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV17" t="n">
         <v>16</v>
@@ -3534,7 +3601,7 @@
         <v>2</v>
       </c>
       <c r="AX17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3543,13 +3610,13 @@
         <v>8</v>
       </c>
       <c r="BA17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>11</v>
       </c>
       <c r="BC17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3674,7 +3741,7 @@
         <v>27</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
         <v>26</v>
@@ -3725,7 +3792,7 @@
         <v>18</v>
       </c>
       <c r="BA18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" t="n">
         <v>36</v>
       </c>
       <c r="F19" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.507</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3787,7 +3854,7 @@
         <v>7.5</v>
       </c>
       <c r="M19" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="N19" t="n">
         <v>0.344</v>
@@ -3799,13 +3866,13 @@
         <v>27.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.78</v>
+        <v>0.781</v>
       </c>
       <c r="R19" t="n">
         <v>12.6</v>
       </c>
       <c r="S19" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T19" t="n">
         <v>44.9</v>
@@ -3814,13 +3881,13 @@
         <v>23.6</v>
       </c>
       <c r="V19" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W19" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y19" t="n">
         <v>5.6</v>
@@ -3832,19 +3899,19 @@
         <v>23.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
         <v>16</v>
@@ -3859,19 +3926,19 @@
         <v>2</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL19" t="n">
         <v>17</v>
       </c>
       <c r="AM19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN19" t="n">
         <v>26</v>
       </c>
       <c r="AO19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
@@ -3880,10 +3947,10 @@
         <v>7</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT19" t="n">
         <v>8</v>
@@ -3892,7 +3959,7 @@
         <v>6</v>
       </c>
       <c r="AV19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW19" t="n">
         <v>4</v>
@@ -3913,7 +3980,7 @@
         <v>3</v>
       </c>
       <c r="BC19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
         <v>18</v>
@@ -4038,10 +4105,10 @@
         <v>14</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
         <v>29</v>
@@ -4056,13 +4123,13 @@
         <v>12</v>
       </c>
       <c r="AP20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ20" t="n">
         <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS20" t="n">
         <v>25</v>
@@ -4071,7 +4138,7 @@
         <v>22</v>
       </c>
       <c r="AU20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV20" t="n">
         <v>7</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -4124,28 +4191,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" t="n">
         <v>43</v>
       </c>
       <c r="G21" t="n">
-        <v>0.419</v>
+        <v>0.411</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J21" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L21" t="n">
         <v>9.1</v>
@@ -4160,10 +4227,10 @@
         <v>15.2</v>
       </c>
       <c r="P21" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R21" t="n">
         <v>10.8</v>
@@ -4175,7 +4242,7 @@
         <v>40.7</v>
       </c>
       <c r="U21" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V21" t="n">
         <v>13</v>
@@ -4196,16 +4263,16 @@
         <v>19.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
         <v>21</v>
@@ -4214,7 +4281,7 @@
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI21" t="n">
         <v>19</v>
@@ -4223,7 +4290,7 @@
         <v>15</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL21" t="n">
         <v>6</v>
@@ -4244,7 +4311,7 @@
         <v>17</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS21" t="n">
         <v>27</v>
@@ -4265,16 +4332,16 @@
         <v>19</v>
       </c>
       <c r="AY21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA21" t="n">
         <v>24</v>
       </c>
       <c r="BB21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC21" t="n">
         <v>19</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" t="n">
         <v>19</v>
       </c>
       <c r="G22" t="n">
-        <v>0.74</v>
+        <v>0.736</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J22" t="n">
-        <v>82.59999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L22" t="n">
         <v>8.1</v>
@@ -4336,7 +4403,7 @@
         <v>22.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.366</v>
+        <v>0.364</v>
       </c>
       <c r="O22" t="n">
         <v>19.9</v>
@@ -4345,10 +4412,10 @@
         <v>24.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.804</v>
+        <v>0.803</v>
       </c>
       <c r="R22" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S22" t="n">
         <v>34.3</v>
@@ -4378,13 +4445,13 @@
         <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.2</v>
+        <v>106</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,13 +4463,13 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
         <v>4</v>
       </c>
       <c r="AJ22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK22" t="n">
         <v>6</v>
@@ -4426,13 +4493,13 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AU22" t="n">
         <v>13</v>
@@ -4441,13 +4508,13 @@
         <v>27</v>
       </c>
       <c r="AW22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ22" t="n">
         <v>26</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" t="n">
         <v>21</v>
       </c>
       <c r="F23" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G23" t="n">
-        <v>0.284</v>
+        <v>0.288</v>
       </c>
       <c r="H23" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I23" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J23" t="n">
-        <v>83.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L23" t="n">
         <v>6.8</v>
@@ -4521,28 +4588,28 @@
         <v>0.349</v>
       </c>
       <c r="O23" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P23" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R23" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T23" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U23" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V23" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W23" t="n">
         <v>7.6</v>
@@ -4560,13 +4627,13 @@
         <v>18.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC23" t="n">
         <v>-5.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4584,10 +4651,10 @@
         <v>21</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL23" t="n">
         <v>21</v>
@@ -4620,10 +4687,10 @@
         <v>22</v>
       </c>
       <c r="AV23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW23" t="n">
         <v>14</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>15</v>
       </c>
       <c r="AX23" t="n">
         <v>24</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-11</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4760,7 +4827,7 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI24" t="n">
         <v>17</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -4852,37 +4919,37 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" t="n">
         <v>44</v>
       </c>
       <c r="F25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" t="n">
-        <v>0.595</v>
+        <v>0.603</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J25" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L25" t="n">
         <v>9.5</v>
       </c>
       <c r="M25" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.374</v>
+        <v>0.377</v>
       </c>
       <c r="O25" t="n">
         <v>18.6</v>
@@ -4912,7 +4979,7 @@
         <v>8.4</v>
       </c>
       <c r="X25" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y25" t="n">
         <v>4</v>
@@ -4924,13 +4991,13 @@
         <v>21.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -4942,16 +5009,16 @@
         <v>9</v>
       </c>
       <c r="AH25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ25" t="n">
         <v>11</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL25" t="n">
         <v>2</v>
@@ -4960,7 +5027,7 @@
         <v>4</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO25" t="n">
         <v>10</v>
@@ -4987,10 +5054,10 @@
         <v>26</v>
       </c>
       <c r="AW25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY25" t="n">
         <v>7</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" t="n">
         <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>0.64</v>
+        <v>0.635</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5052,37 +5119,37 @@
         <v>39</v>
       </c>
       <c r="J26" t="n">
-        <v>86.90000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L26" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M26" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="N26" t="n">
         <v>0.372</v>
       </c>
       <c r="O26" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P26" t="n">
         <v>23.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.819</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="R26" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S26" t="n">
         <v>33.7</v>
       </c>
       <c r="T26" t="n">
-        <v>46.2</v>
+        <v>46.3</v>
       </c>
       <c r="U26" t="n">
         <v>23</v>
@@ -5094,7 +5161,7 @@
         <v>5.5</v>
       </c>
       <c r="X26" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y26" t="n">
         <v>3.7</v>
@@ -5109,7 +5176,7 @@
         <v>106.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -5133,10 +5200,10 @@
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM26" t="n">
         <v>3</v>
@@ -5154,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS26" t="n">
         <v>6</v>
@@ -5163,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV26" t="n">
         <v>6</v>
@@ -5181,7 +5248,7 @@
         <v>7</v>
       </c>
       <c r="BA26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5360,7 +5427,7 @@
         <v>23</v>
       </c>
       <c r="AZ27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA27" t="n">
         <v>4</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5515,7 +5582,7 @@
         <v>29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR28" t="n">
         <v>27</v>
@@ -5536,7 +5603,7 @@
         <v>19</v>
       </c>
       <c r="AX28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F29" t="n">
         <v>31</v>
       </c>
       <c r="G29" t="n">
-        <v>0.575</v>
+        <v>0.569</v>
       </c>
       <c r="H29" t="n">
         <v>48.8</v>
@@ -5598,7 +5665,7 @@
         <v>36.5</v>
       </c>
       <c r="J29" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K29" t="n">
         <v>0.443</v>
@@ -5607,31 +5674,31 @@
         <v>8.4</v>
       </c>
       <c r="M29" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="N29" t="n">
         <v>0.367</v>
       </c>
       <c r="O29" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P29" t="n">
         <v>24.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.784</v>
+        <v>0.781</v>
       </c>
       <c r="R29" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S29" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T29" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U29" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V29" t="n">
         <v>14.2</v>
@@ -5646,19 +5713,19 @@
         <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA29" t="n">
         <v>22</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="AC29" t="n">
         <v>3.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5676,19 +5743,19 @@
         <v>23</v>
       </c>
       <c r="AJ29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK29" t="n">
         <v>21</v>
       </c>
-      <c r="AK29" t="n">
-        <v>22</v>
-      </c>
       <c r="AL29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN29" t="n">
         <v>12</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>13</v>
       </c>
       <c r="AO29" t="n">
         <v>6</v>
@@ -5697,7 +5764,7 @@
         <v>7</v>
       </c>
       <c r="AQ29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR29" t="n">
         <v>12</v>
@@ -5706,10 +5773,10 @@
         <v>19</v>
       </c>
       <c r="AT29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
@@ -5718,22 +5785,22 @@
         <v>23</v>
       </c>
       <c r="AX29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
       </c>
       <c r="AZ29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA29" t="n">
         <v>5</v>
       </c>
       <c r="BB29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E30" t="n">
         <v>23</v>
       </c>
       <c r="F30" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G30" t="n">
-        <v>0.311</v>
+        <v>0.315</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5780,7 +5847,7 @@
         <v>35.7</v>
       </c>
       <c r="J30" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="K30" t="n">
         <v>0.442</v>
@@ -5792,7 +5859,7 @@
         <v>19.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O30" t="n">
         <v>16.3</v>
@@ -5804,13 +5871,13 @@
         <v>0.746</v>
       </c>
       <c r="R30" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S30" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T30" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U30" t="n">
         <v>20</v>
@@ -5819,28 +5886,28 @@
         <v>14.7</v>
       </c>
       <c r="W30" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X30" t="n">
         <v>4.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-7</v>
+        <v>-6.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>26</v>
@@ -5852,7 +5919,7 @@
         <v>27</v>
       </c>
       <c r="AH30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI30" t="n">
         <v>28</v>
@@ -5873,13 +5940,13 @@
         <v>22</v>
       </c>
       <c r="AO30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP30" t="n">
         <v>21</v>
       </c>
       <c r="AQ30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR30" t="n">
         <v>20</v>
@@ -5894,7 +5961,7 @@
         <v>27</v>
       </c>
       <c r="AV30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW30" t="n">
         <v>27</v>
@@ -5903,13 +5970,13 @@
         <v>20</v>
       </c>
       <c r="AY30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ30" t="n">
         <v>17</v>
       </c>
       <c r="BA30" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BB30" t="n">
         <v>29</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
@@ -6022,10 +6089,10 @@
         <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF31" t="n">
         <v>15</v>
@@ -6064,7 +6131,7 @@
         <v>25</v>
       </c>
       <c r="AR31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS31" t="n">
         <v>17</v>
@@ -6079,7 +6146,7 @@
         <v>15</v>
       </c>
       <c r="AW31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-30-2013-14</t>
+          <t>2014-03-30</t>
         </is>
       </c>
     </row>
